--- a/cheeseRunners WBS.xlsx
+++ b/cheeseRunners WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{3B76E251-CE55-4985-BA1A-0F5E07F13AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08A2EB3-F273-4445-8CEA-0E05975EB4B2}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{3B76E251-CE55-4985-BA1A-0F5E07F13AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C26D6EDB-EC12-4033-BB78-0D09BCE6CB05}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3075" windowWidth="28755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -998,6 +998,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1028,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1030,30 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" xfId="2" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1271,6 +1271,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1506,8 +1514,8 @@
   </sheetPr>
   <dimension ref="B1:BP29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="30" customHeight="1"/>
@@ -1551,63 +1559,63 @@
         <v>1</v>
       </c>
       <c r="K2" s="12"/>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="32"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="15"/>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="32"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="40"/>
       <c r="AC2" s="16"/>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
       <c r="AN2" s="21"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
       <c r="AQ2" s="21"/>
     </row>
     <row r="3" spans="2:68" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="17" t="s">
@@ -1634,13 +1642,13 @@
       <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="3">
         <v>1</v>
       </c>
@@ -1823,7 +1831,7 @@
       </c>
     </row>
     <row r="5" spans="2:68" ht="30" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="19">
@@ -1901,10 +1909,14 @@
       <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="30" customHeight="1">
@@ -1923,13 +1935,15 @@
       <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19">
+        <v>5</v>
+      </c>
       <c r="H9" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="2:68" ht="30" customHeight="1">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="19">
@@ -1955,10 +1969,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="19">
-        <v>4</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
@@ -2021,7 +2039,7 @@
       </c>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="20">
@@ -2066,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -2094,14 +2112,14 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="19">
         <v>3</v>
       </c>
       <c r="E19" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
@@ -2120,10 +2138,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="19">
-        <v>3</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>4</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
@@ -2139,7 +2161,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -2158,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -2167,14 +2189,14 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="19">
         <v>7</v>
       </c>
       <c r="E23" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -2193,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="19">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -2212,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -2231,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -2240,14 +2262,14 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="19">
         <v>10</v>
       </c>
       <c r="E27" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -2266,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -2285,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
